--- a/Hcard配置表/dict_condition.xlsx
+++ b/Hcard配置表/dict_condition.xlsx
@@ -182,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -205,6 +205,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -213,7 +220,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,20 +268,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,7 +289,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +319,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,50 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -369,7 +369,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +477,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,139 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,22 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,22 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +665,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,21 +714,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,145 +722,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.625" defaultRowHeight="77" customHeight="1"/>
@@ -2201,13 +2201,18 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="e">
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>VLOOKUP(F14,条件时点!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="8">
-        <f>VLOOKUP(G14,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>0</v>
+        <v>检定开始时</v>
+      </c>
+      <c r="E14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>

--- a/Hcard配置表/dict_condition.xlsx
+++ b/Hcard配置表/dict_condition.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>condition_id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>条件对象（1是对象，2是全局）</t>
+  </si>
+  <si>
+    <t>只能打入不能使用的卡牌</t>
   </si>
   <si>
     <t>condition_desc16</t>
@@ -182,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,6 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,7 +230,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +246,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,71 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +298,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,7 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +372,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,31 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,127 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +620,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -632,20 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,21 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +737,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,124 +746,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,8 +1843,8 @@
   <sheetPr/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.625" defaultRowHeight="77" customHeight="1"/>
@@ -2275,20 +2278,22 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="e">
+      <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" s="8" t="e">
+        <v>当打入卡牌时只能打入不能使用的卡牌</v>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>VLOOKUP(F17,条件时点!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="8">
-        <f>VLOOKUP(G17,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>0</v>
+        <v>打入卡牌时</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -2308,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -2328,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
@@ -2348,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
@@ -2368,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -2388,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -2405,7 +2410,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="G23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -2422,7 +2427,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -2439,7 +2444,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="G25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
@@ -2456,7 +2461,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
@@ -2473,7 +2478,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="G27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
@@ -2490,7 +2495,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="G28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
@@ -2507,7 +2512,7 @@
       </c>
       <c r="E29" s="8"/>
       <c r="G29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -2524,7 +2529,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="G30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
@@ -3153,10 +3158,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3164,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3172,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3180,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3188,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3196,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3204,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3212,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3220,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Hcard配置表/dict_condition.xlsx
+++ b/Hcard配置表/dict_condition.xlsx
@@ -186,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -214,23 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,7 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,16 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,10 +329,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,14 +350,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -372,7 +372,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,55 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,43 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,61 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,8 +623,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,30 +664,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,15 +700,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -717,6 +708,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,145 +725,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,8 +1843,8 @@
   <sheetPr/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.625" defaultRowHeight="77" customHeight="1"/>

--- a/Hcard配置表/dict_condition.xlsx
+++ b/Hcard配置表/dict_condition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dict_condition" sheetId="2" r:id="rId1"/>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -207,6 +207,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,8 +231,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,16 +268,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,91 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +372,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,37 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,109 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,8 +623,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,8 +643,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,16 +680,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,32 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -725,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,7 +1843,7 @@
   <sheetPr/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Hcard配置表/dict_condition.xlsx
+++ b/Hcard配置表/dict_condition.xlsx
@@ -185,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -202,6 +202,66 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -223,24 +283,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,50 +337,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -328,24 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +384,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +456,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,127 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,22 +620,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,8 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +674,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,26 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
